--- a/config_Release/act_027_qyzl_config.xlsx
+++ b/config_Release/act_027_qyzl_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>index</t>
   </si>
@@ -37,9 +42,6 @@
   </si>
   <si>
     <t>累计消耗10万金币</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_6y</t>
   </si>
   <si>
     <t>500金币</t>
@@ -241,9 +243,6 @@
     <t>content|内容</t>
   </si>
   <si>
-    <t>1.活动时间：6月29日08:00:00—7月26日23:59:59。</t>
-  </si>
-  <si>
     <t>2. 所有任务奖励必须先领取前一个任务的奖励后才能领取。</t>
   </si>
   <si>
@@ -254,19 +253,46 @@
   </si>
   <si>
     <t>5.活动结束后，未领取的奖励视为自动放弃。</t>
+  </si>
+  <si>
+    <t>1.活动时间：8月3日08:00:00—8月30日23:59:59。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1万金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00金币</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,151 +332,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,7 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,194 +372,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -664,255 +381,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,62 +430,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1059,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1094,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1297,19 +731,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
@@ -1319,7 +753,7 @@
     <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1349,18 +783,17 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:9">
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1370,60 +803,60 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1434,59 +867,59 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1497,59 +930,59 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" ht="15.75" spans="1:9">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" ht="15.75" spans="1:9">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" ht="15.75" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1560,59 +993,59 @@
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" ht="15.75" spans="1:9">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" ht="15.75" spans="1:9">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" ht="15.75" spans="1:9">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1623,194 +1056,206 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" ht="15.75" spans="1:9">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" ht="15.75" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" ht="15.75" spans="1:9">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" ht="15.75" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" ht="15.75" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" ht="15.75" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" ht="15.75" spans="1:9">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" ht="15.75" spans="1:9">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" ht="15.75" spans="1:9">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1819,7 +1264,7 @@
       <c r="F25" s="9"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" ht="15.75" spans="1:9">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1828,7 +1273,7 @@
       <c r="F26" s="9"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" ht="15.75" spans="1:9">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1837,7 +1282,7 @@
       <c r="F27" s="9"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" ht="15.75" spans="1:9">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1846,7 +1291,7 @@
       <c r="F28" s="9"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" ht="15.75" spans="1:9">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1855,7 +1300,7 @@
       <c r="F29" s="9"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" ht="15.75" spans="1:9">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1864,7 +1309,7 @@
       <c r="F30" s="9"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" ht="15.75" spans="1:9">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1873,7 +1318,7 @@
       <c r="F31" s="9"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" ht="15.75" spans="1:9">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1882,7 +1327,7 @@
       <c r="F32" s="9"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" ht="15.75" spans="1:9">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1891,23 +1336,31 @@
       <c r="F33" s="9"/>
       <c r="I33" s="12"/>
     </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+      <c r="I34" s="12"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
@@ -1918,44 +1371,44 @@
     <col min="9" max="9" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6">
         <v>1000698</v>
@@ -1964,88 +1417,88 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
-        <v>1627315199</v>
+        <v>1630339199</v>
       </c>
       <c r="G2" s="6">
-        <v>1624896000</v>
+        <v>1627948800</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="92.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_027_qyzl_config.xlsx
+++ b/config_Release/act_027_qyzl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,10 +255,6 @@
   </si>
   <si>
     <t>5.活动结束后，未领取的奖励视为自动放弃。</t>
-  </si>
-  <si>
-    <t>1.活动时间：8月3日08:00:00—8月30日23:59:59。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>累计消耗1万金币</t>
@@ -286,6 +284,10 @@
       <t>00金币</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：8月31日08:00:00—9月27日23:59:59。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -304,18 +306,21 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF454545"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -323,17 +328,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -739,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -807,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -1357,7 +1365,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,10 +1425,10 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
       <c r="G2" s="6">
-        <v>1627948800</v>
+        <v>1630368000</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>64</v>
@@ -1439,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">

--- a/config_Release/act_027_qyzl_config.xlsx
+++ b/config_Release/act_027_qyzl_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>index</t>
   </si>
@@ -254,9 +254,6 @@
     <t>4.苹果大战的数据不计入活动统计。</t>
   </si>
   <si>
-    <t>5.活动结束后，未领取的奖励视为自动放弃。</t>
-  </si>
-  <si>
     <t>累计消耗1万金币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -286,7 +283,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.活动时间：8月31日08:00:00—9月27日23:59:59。</t>
+    <t>1.活动时间：9月28日08:00:00—11月1日23:59:59。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.活动结束后，未领取的奖励视为自动放弃。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.疯狂捕鱼数据只计50%。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +753,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -815,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
@@ -1365,7 +1370,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,10 +1430,10 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
-        <v>1632758399</v>
+        <v>1635782399</v>
       </c>
       <c r="G2" s="6">
-        <v>1630368000</v>
+        <v>1632787200</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>64</v>
@@ -1445,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1501,7 +1506,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_027_qyzl_config.xlsx
+++ b/config_Release/act_027_qyzl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -283,15 +283,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.活动时间：9月28日08:00:00—11月1日23:59:59。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>6.活动结束后，未领取的奖励视为自动放弃。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5.疯狂捕鱼数据只计50%。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：11月2日08:00:00—11月29日23:59:59。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1430,10 +1430,10 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="G2" s="6">
-        <v>1632787200</v>
+        <v>1635811200</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>64</v>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_027_qyzl_config.xlsx
+++ b/config_Release/act_027_qyzl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1.活动时间：11月2日08:00:00—11月29日23:59:59。</t>
+    <t>1.活动时间：11月30日08:00:00—12月27日23:59:59。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1430,10 +1430,10 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
-        <v>1638201599</v>
+        <v>1640620799</v>
       </c>
       <c r="G2" s="6">
-        <v>1635811200</v>
+        <v>1638230400</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>64</v>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
